--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD819686-CCDB-40BC-9157-03D39775DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983EC96-69E8-445F-803D-144F9285D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1365" windowWidth="22800" windowHeight="13485" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="16965" yWindow="4005" windowWidth="28440" windowHeight="14205" activeTab="1" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>bv15</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>qft27</t>
+  </si>
+  <si>
+    <t>hlf27</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,10 +661,10 @@
         <v>13705.5</v>
       </c>
       <c r="J6">
-        <v>13705.5</v>
+        <v>13356.25</v>
       </c>
       <c r="K6">
-        <v>13705.5</v>
+        <v>13356.25</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,6 +911,12 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>24526</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -931,16 +940,16 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>44.5</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>21.666</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12*1000-B12*999</f>
-        <v>33511</v>
+        <v>27355.666000000001</v>
       </c>
     </row>
   </sheetData>
@@ -950,15 +959,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -969,43 +978,34 @@
         <v>2</v>
       </c>
       <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>8</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>10</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>12</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>14</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>16</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>18</v>
       </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1015,17 +1015,17 @@
       <c r="D2">
         <v>74016</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>72681.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>72265.75</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>72564.25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1036,29 +1036,32 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>126999</v>
+      </c>
+      <c r="E4">
+        <v>84348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>108999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>48241</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>45300.75</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>44998.25</v>
-      </c>
-      <c r="H5">
-        <v>44945.5</v>
       </c>
       <c r="I5">
         <v>44945.5</v>
@@ -1075,33 +1078,24 @@
       <c r="M5">
         <v>44945.5</v>
       </c>
-      <c r="N5">
-        <v>44945.5</v>
-      </c>
-      <c r="O5">
-        <v>44945.5</v>
-      </c>
-      <c r="P5">
-        <v>44945.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="B8">
         <v>45.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8*1000-B8*999</f>
-        <v>44945.5</v>
+        <v>45145.5</v>
       </c>
     </row>
   </sheetData>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983EC96-69E8-445F-803D-144F9285D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15012E99-9790-44B2-90E6-4240622329E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="4005" windowWidth="28440" windowHeight="14205" activeTab="1" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="405" yWindow="7215" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1024,12 @@
       <c r="I2">
         <v>72564.25</v>
       </c>
+      <c r="J2">
+        <v>72415</v>
+      </c>
+      <c r="K2">
+        <v>72464.75</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1035,6 +1041,15 @@
       <c r="D3">
         <v>126.5</v>
       </c>
+      <c r="F3">
+        <v>10562.7</v>
+      </c>
+      <c r="G3">
+        <v>105069</v>
+      </c>
+      <c r="H3">
+        <v>104403.7</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1086,16 +1101,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>90.6</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>45.5</v>
+        <v>69.665999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8*1000-B8*999</f>
-        <v>45145.5</v>
+        <v>104403.666</v>
       </c>
     </row>
   </sheetData>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15012E99-9790-44B2-90E6-4240622329E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74363E26-9BAA-4D9D-8F94-D4B9532EC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="7215" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="31590" yWindow="5880" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>bv15</t>
   </si>
@@ -79,9 +79,6 @@
     <t>iqp27</t>
   </si>
   <si>
-    <t>25109,67</t>
-  </si>
-  <si>
     <t>vqe26</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>hlf27</t>
+  </si>
+  <si>
+    <t>vqe14</t>
   </si>
 </sst>
 </file>
@@ -141,6 +141,3146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Small benchmarks sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bv5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.58389599641366952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60802786302975964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61375219835166728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6160374495672265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62064209110658985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6286747818890307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63788406496775751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63788406496775751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D902-4BA0-9C67-704EFD4BD6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iqp5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.317361624418453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33330579590416975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33474498891256138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34343232314448457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35211965737640766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36945084568894299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36945084568894299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36945084568894299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D902-4BA0-9C67-704EFD4BD6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hlf7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>0.19122570546545503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28904517587721207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33689508239488675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33905821992260532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35645028044697596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35645028044697596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35645028044697596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D902-4BA0-9C67-704EFD4BD6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>qft5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.55840754321634367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5679222820134292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57743702081051484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D902-4BA0-9C67-704EFD4BD6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vqe6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.4097663906556262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40985639425577025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43377735109404375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4517580703228129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4517580703228129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4517580703228129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46572862914516583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46572862914516583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D902-4BA0-9C67-704EFD4BD6B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1894659295"/>
+        <c:axId val="1929337823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1894659295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of circits to keep</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1929337823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1929337823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> reduction</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894659295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Medium benchmarks sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bv15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.50854344724596323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51054680729076385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51122348297977305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51255016733556447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51586687822504296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52251363351511348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52251363351511348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52251363351511348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52251363351511348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iqp15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$16:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.35973592266571192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45895628341090633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46138841220261978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46574957715527354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49653390782602252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49653390782602252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49653390782602252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49653390782602252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49653390782602252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hlf15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.449664144606502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52331647766938993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50534915753127418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57143531010019055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57143531010019055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59501594369705091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59501594369705091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59407724674050455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59407724674050455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59878959980376989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59878959980376989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59878959980376989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>qft15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$18:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.57119788848997521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57827505368940468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61917736356333708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61972065115821562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62026705355825507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62026705355825507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62026705355825507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62026705355825507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62026705355825507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vqe14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.55824964343677763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55824964343677763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56514041213790389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56514041213790389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58835931736585845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58835931736585845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58835931736585845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58835931736585845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58835931736585845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1589392287"/>
+        <c:axId val="1658452495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1589392287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of circuits to keep</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658452495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1658452495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589392287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C08798A-33A9-1C7B-9C43-25AA987F6A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D282F9D-2671-8F6D-E941-FDCDCC6A46C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +3580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11FD536-9E0E-4A1B-B48E-F044E8842DD6}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K16" sqref="A12:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,22 +3821,219 @@
         <v>14900.6</v>
       </c>
     </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>28999</v>
+      </c>
+      <c r="D12">
+        <f>(B2-D2)/B2</f>
+        <v>0.58389599641366952</v>
+      </c>
+      <c r="E12">
+        <f>(B2-E2)/B2</f>
+        <v>0.60802786302975964</v>
+      </c>
+      <c r="F12">
+        <f>(B2-F2)/B2</f>
+        <v>0.61375219835166728</v>
+      </c>
+      <c r="G12">
+        <f>(B2-G2)/B2</f>
+        <v>0.6160374495672265</v>
+      </c>
+      <c r="H12">
+        <f>(B2-H2)/B2</f>
+        <v>0.62064209110658985</v>
+      </c>
+      <c r="I12">
+        <f>(B2-I2)/B2</f>
+        <v>0.6286747818890307</v>
+      </c>
+      <c r="J12">
+        <f>(B2-J2)/B2</f>
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="K12">
+        <f>(B2-K2)/B2</f>
+        <v>0.63788406496775751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>22999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D16" si="0">(B3-D3)/B3</f>
+        <v>0.317361624418453</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="1">(B3-E3)/B3</f>
+        <v>0.33330579590416975</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F16" si="2">(B3-F3)/B3</f>
+        <v>0.33474498891256138</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G16" si="3">(B3-G3)/B3</f>
+        <v>0.34343232314448457</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H16" si="4">(B3-H3)/B3</f>
+        <v>0.35211965737640766</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I16" si="5">(B3-I3)/B3</f>
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J16" si="6">(B3-J3)/B3</f>
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K16" si="7">(B3-K3)/B3</f>
+        <v>0.36945084568894299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>22999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.19122570546545503</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.28904517587721207</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.33689508239488675</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.33905821992260532</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>0.35645028044697596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>20999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.55840754321634367</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.5679222820134292</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>0.57743702081051484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>24999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.4097663906556262</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.40985639425577025</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.43377735109404375</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.4517580703228129</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.4517580703228129</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>0.4517580703228129</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>0.46572862914516583</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>0.46572862914516583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -731,34 +4068,16 @@
         <v>10</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
         <v>16</v>
       </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -793,7 +4112,7 @@
         <v>35811</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -801,7 +4120,7 @@
         <v>80999</v>
       </c>
       <c r="D3">
-        <v>48664.75</v>
+        <v>51860.75</v>
       </c>
       <c r="E3">
         <v>43824</v>
@@ -818,8 +4137,17 @@
       <c r="I3">
         <v>40780.25</v>
       </c>
+      <c r="J3">
+        <v>40780.25</v>
+      </c>
+      <c r="K3">
+        <v>40780.25</v>
+      </c>
+      <c r="L3">
+        <v>40780.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -827,37 +4155,43 @@
         <v>52999</v>
       </c>
       <c r="D4">
-        <v>27813</v>
+        <v>29167.25</v>
       </c>
       <c r="E4">
-        <v>27662</v>
+        <v>26216</v>
       </c>
       <c r="F4">
-        <v>26216</v>
+        <v>25263.75</v>
       </c>
       <c r="G4">
-        <v>25762.25</v>
+        <v>22763.25</v>
       </c>
       <c r="H4">
-        <v>25762.25</v>
+        <v>22713.5</v>
       </c>
       <c r="I4">
-        <v>25762.25</v>
+        <v>21463.75</v>
       </c>
       <c r="J4">
-        <v>25762.25</v>
+        <v>21463.75</v>
       </c>
       <c r="K4">
-        <v>25762.25</v>
+        <v>21513.5</v>
       </c>
       <c r="L4">
-        <v>25762.25</v>
+        <v>21513.5</v>
+      </c>
+      <c r="M4">
+        <v>21263.75</v>
       </c>
       <c r="N4">
-        <v>25315.5</v>
+        <v>21263.75</v>
+      </c>
+      <c r="O4">
+        <v>21263.75</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -892,7 +4226,7 @@
         <v>23163.33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -902,23 +4236,35 @@
       <c r="D6">
         <v>26946.33</v>
       </c>
+      <c r="E6">
+        <v>26946.33</v>
+      </c>
       <c r="F6">
         <v>26526</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6">
+      <c r="G6">
+        <v>26526</v>
+      </c>
+      <c r="H6">
+        <v>25109.67</v>
+      </c>
+      <c r="I6">
+        <v>25109.67</v>
+      </c>
+      <c r="J6">
+        <v>25109.67</v>
+      </c>
+      <c r="K6">
+        <v>25109.67</v>
+      </c>
+      <c r="L6">
+        <v>25109.67</v>
+      </c>
+      <c r="M6">
         <v>24526</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>25</v>
       </c>
@@ -938,7 +4284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>49</v>
       </c>
@@ -946,14 +4292,247 @@
         <v>21.666</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12*1000-B12*999</f>
         <v>27355.666000000001</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>28999</v>
+      </c>
+      <c r="D15">
+        <f>(B2-D2)/B2</f>
+        <v>0.50854344724596323</v>
+      </c>
+      <c r="E15">
+        <f>(B2-E2)/B2</f>
+        <v>0.51054680729076385</v>
+      </c>
+      <c r="F15">
+        <f>(B2-F2)/B2</f>
+        <v>0.51122348297977305</v>
+      </c>
+      <c r="G15">
+        <f>(B2-G2)/B2</f>
+        <v>0.51255016733556447</v>
+      </c>
+      <c r="H15">
+        <f>(B2-H2)/B2</f>
+        <v>0.51586687822504296</v>
+      </c>
+      <c r="I15">
+        <f>(B2-I2)/B2</f>
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="J15">
+        <f>(B2-J2)/B2</f>
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="K15">
+        <f>(B2-K2)/B2</f>
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="L15">
+        <f>(B2-L2)/B2</f>
+        <v>0.52251363351511348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>22999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D19" si="0">(B3-D3)/B3</f>
+        <v>0.35973592266571192</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E19" si="1">(B3-E3)/B3</f>
+        <v>0.45895628341090633</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F19" si="2">(B3-F3)/B3</f>
+        <v>0.46138841220261978</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="3">(B3-G3)/B3</f>
+        <v>0.46574957715527354</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="4">(B3-H3)/B3</f>
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I19" si="5">(B3-I3)/B3</f>
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="6">(B3-J3)/B3</f>
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K19" si="7">(B3-K3)/B3</f>
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L18" si="8">(B3-L3)/B3</f>
+        <v>0.49653390782602252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>22999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.449664144606502</v>
+      </c>
+      <c r="E17">
+        <f>(B4-F4)/B4</f>
+        <v>0.52331647766938993</v>
+      </c>
+      <c r="F17">
+        <f>(B4-E4)/B4</f>
+        <v>0.50534915753127418</v>
+      </c>
+      <c r="G17">
+        <f>(B4-H4)/B4</f>
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="M17">
+        <f>(B4-M4)/B4</f>
+        <v>0.59878959980376989</v>
+      </c>
+      <c r="N17">
+        <f>(B4-N4)/B4</f>
+        <v>0.59878959980376989</v>
+      </c>
+      <c r="O17">
+        <f>(B4-O4)/B4</f>
+        <v>0.59878959980376989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>20999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.57119788848997521</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.57827505368940468</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.61917736356333708</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.61972065115821562</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>0.62026705355825507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>24999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="L19">
+        <f>(B6-L6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,7 +4541,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,21 +4629,48 @@
       <c r="H3">
         <v>104403.7</v>
       </c>
+      <c r="I3">
+        <v>104903</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>126999</v>
       </c>
       <c r="E4">
-        <v>84348</v>
+        <v>112609</v>
+      </c>
+      <c r="F4">
+        <v>111760</v>
+      </c>
+      <c r="G4">
+        <v>93429</v>
+      </c>
+      <c r="H4">
+        <v>78116.5</v>
+      </c>
+      <c r="I4">
+        <v>75317.5</v>
+      </c>
+      <c r="J4">
+        <v>73435</v>
+      </c>
+      <c r="K4">
+        <v>73435</v>
+      </c>
+      <c r="L4">
+        <v>72518</v>
+      </c>
+      <c r="M4">
+        <v>70437</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>108999</v>
@@ -1096,7 +4702,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>108999</v>
+      </c>
+      <c r="D6">
+        <v>57779</v>
+      </c>
+      <c r="F6">
+        <v>54951</v>
+      </c>
+      <c r="G6">
+        <v>50205</v>
+      </c>
+      <c r="H6">
+        <v>49292</v>
+      </c>
+      <c r="I6">
+        <v>47123</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74363E26-9BAA-4D9D-8F94-D4B9532EC0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24715909-CAE5-4986-A356-46D1B6DC36A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="5880" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="2790" yWindow="6675" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4538,15 +4538,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -4583,8 +4583,11 @@
       <c r="M1">
         <v>18</v>
       </c>
+      <c r="N1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4601,56 +4604,77 @@
         <v>72265.75</v>
       </c>
       <c r="I2">
-        <v>72564.25</v>
+        <v>72099</v>
       </c>
       <c r="J2">
-        <v>72415</v>
+        <v>72099</v>
       </c>
       <c r="K2">
-        <v>72464.75</v>
+        <v>72099</v>
+      </c>
+      <c r="L2">
+        <v>72099</v>
+      </c>
+      <c r="M2">
+        <v>72016</v>
+      </c>
+      <c r="N2">
+        <v>72016</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>178999</v>
       </c>
       <c r="D3">
-        <v>126.5</v>
+        <v>109813.25</v>
       </c>
       <c r="F3">
-        <v>10562.7</v>
+        <v>105169.5</v>
       </c>
       <c r="G3">
-        <v>105069</v>
+        <v>104519.75</v>
       </c>
       <c r="H3">
-        <v>104403.7</v>
+        <v>104370.5</v>
       </c>
       <c r="I3">
-        <v>104903</v>
+        <v>104370.5</v>
+      </c>
+      <c r="J3">
+        <v>104370.5</v>
+      </c>
+      <c r="K3">
+        <v>104320</v>
+      </c>
+      <c r="L3">
+        <v>104320</v>
+      </c>
+      <c r="M3">
+        <v>104320</v>
+      </c>
+      <c r="N3">
+        <v>104320</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
         <v>126999</v>
       </c>
-      <c r="E4">
-        <v>112609</v>
-      </c>
       <c r="F4">
-        <v>111760</v>
+        <v>78116.5</v>
       </c>
       <c r="G4">
-        <v>93429</v>
+        <v>75317.5</v>
       </c>
       <c r="H4">
-        <v>78116.5</v>
+        <v>75317.5</v>
       </c>
       <c r="I4">
         <v>75317.5</v>
@@ -4667,14 +4691,20 @@
       <c r="M4">
         <v>70437</v>
       </c>
+      <c r="N4">
+        <v>70437</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <v>108999</v>
       </c>
+      <c r="D5">
+        <v>51939.5</v>
+      </c>
       <c r="F5">
         <v>48241</v>
       </c>
@@ -4682,25 +4712,28 @@
         <v>45300.75</v>
       </c>
       <c r="H5">
-        <v>44998.25</v>
+        <v>45295.75</v>
       </c>
       <c r="I5">
-        <v>44945.5</v>
+        <v>45295.75</v>
       </c>
       <c r="J5">
-        <v>44945.5</v>
+        <v>45295.75</v>
       </c>
       <c r="K5">
-        <v>44945.5</v>
+        <v>45295.75</v>
       </c>
       <c r="L5">
-        <v>44945.5</v>
+        <v>44201.25</v>
       </c>
       <c r="M5">
-        <v>44945.5</v>
+        <v>44201.25</v>
+      </c>
+      <c r="N5">
+        <v>44201.25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4714,16 +4747,31 @@
         <v>54951</v>
       </c>
       <c r="G6">
-        <v>50205</v>
+        <v>49292</v>
       </c>
       <c r="H6">
-        <v>49292</v>
+        <v>47123</v>
       </c>
       <c r="I6">
         <v>47123</v>
       </c>
+      <c r="J6">
+        <v>42550</v>
+      </c>
+      <c r="K6">
+        <v>42384</v>
+      </c>
+      <c r="L6">
+        <v>42384</v>
+      </c>
+      <c r="M6">
+        <v>42384</v>
+      </c>
+      <c r="N6">
+        <v>42384</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>174</v>
       </c>
@@ -4731,7 +4779,7 @@
         <v>69.665999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8*1000-B8*999</f>
         <v>104403.666</v>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24715909-CAE5-4986-A356-46D1B6DC36A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E342A2-DA31-400C-8AEC-48B60693B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="6675" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>bv15</t>
   </si>
@@ -1203,10 +1203,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:f>Sheet2!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1233,25 +1233,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$15:$O$15</c:f>
+              <c:f>Sheet2!$D$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.50854344724596323</c:v>
                 </c:pt>
@@ -1329,10 +1320,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:f>Sheet2!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1359,25 +1350,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$16:$O$16</c:f>
+              <c:f>Sheet2!$D$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.35973592266571192</c:v>
                 </c:pt>
@@ -1455,10 +1437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:f>Sheet2!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1485,25 +1467,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$17:$O$17</c:f>
+              <c:f>Sheet2!$D$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.449664144606502</c:v>
                 </c:pt>
@@ -1530,15 +1503,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.59407724674050455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59878959980376989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.59878959980376989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59878959980376989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,10 +1554,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:f>Sheet2!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1620,25 +1584,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$18:$O$18</c:f>
+              <c:f>Sheet2!$D$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.57119788848997521</c:v>
                 </c:pt>
@@ -1716,10 +1671,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$O$1</c:f>
+              <c:f>Sheet2!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1746,25 +1701,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$19:$O$19</c:f>
+              <c:f>Sheet2!$D$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.55824964343677763</c:v>
                 </c:pt>
@@ -1799,6 +1745,1006 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-285C-488C-92B8-039C750C9FC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1589392287"/>
+        <c:axId val="1658452495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1589392287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of circuits to keep</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658452495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1658452495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589392287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Large benchmarks sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bv27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45173739453781825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46162398797045945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46162398797045945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46470211331767913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46593728935341222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46593728935341222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46593728935341222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46593728935341222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46655209961407695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46655209961407695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4354-4B91-9F87-2BDD129C696A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iqp27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38651472913256496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41245761149503629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41608752004201138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41692132358281331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41692132358281331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41692132358281331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41720344806395565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41720344806395565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41720344806395565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41720344806395565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4354-4B91-9F87-2BDD129C696A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hlf27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.40694414916652888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40694414916652888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40694414916652888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40694414916652888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42176710052835059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42176710052835059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42898762982385685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44537358561878437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44537358561878437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4354-4B91-9F87-2BDD129C696A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>qft27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$18:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52348645400416516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55741795796291704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58439297608234941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58443884806282631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58443884806282631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58443884806282631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58443884806282631</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59448022458921645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59448022458921645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59448022458921645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4354-4B91-9F87-2BDD129C696A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vqe26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$19:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46991256800521108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49585776016293726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54777566766667585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56767493279754855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56767493279754855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60962944614170778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61115239589354031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61115239589354031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61115239589354031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61115239589354031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4354-4B91-9F87-2BDD129C696A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2195,6 +3141,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2699,6 +3685,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3267,6 +4756,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5290A3-B79D-41EE-B0FA-5ACD7AD76CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3583,7 +5115,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="A12:K16"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,15 +5713,6 @@
       <c r="L4">
         <v>21513.5</v>
       </c>
-      <c r="M4">
-        <v>21263.75</v>
-      </c>
-      <c r="N4">
-        <v>21263.75</v>
-      </c>
-      <c r="O4">
-        <v>21263.75</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4259,9 +5782,6 @@
       </c>
       <c r="L6">
         <v>25109.67</v>
-      </c>
-      <c r="M6">
-        <v>24526</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4386,7 +5906,7 @@
         <v>0.49653390782602252</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4429,20 +5949,8 @@
         <f t="shared" si="8"/>
         <v>0.59407724674050455</v>
       </c>
-      <c r="M17">
-        <f>(B4-M4)/B4</f>
-        <v>0.59878959980376989</v>
-      </c>
-      <c r="N17">
-        <f>(B4-N4)/B4</f>
-        <v>0.59878959980376989</v>
-      </c>
-      <c r="O17">
-        <f>(B4-O4)/B4</f>
-        <v>0.59878959980376989</v>
-      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +5994,7 @@
         <v>0.62026705355825507</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4538,15 +6046,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -4557,37 +6065,34 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M1">
-        <v>18</v>
-      </c>
-      <c r="N1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4597,11 +6102,17 @@
       <c r="D2">
         <v>74016</v>
       </c>
+      <c r="E2">
+        <v>72681.3</v>
+      </c>
       <c r="F2">
         <v>72681.3</v>
       </c>
+      <c r="G2">
+        <v>72265.75</v>
+      </c>
       <c r="H2">
-        <v>72265.75</v>
+        <v>72099</v>
       </c>
       <c r="I2">
         <v>72099</v>
@@ -4613,16 +6124,13 @@
         <v>72099</v>
       </c>
       <c r="L2">
-        <v>72099</v>
+        <v>72016</v>
       </c>
       <c r="M2">
         <v>72016</v>
       </c>
-      <c r="N2">
-        <v>72016</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4632,11 +6140,14 @@
       <c r="D3">
         <v>109813.25</v>
       </c>
+      <c r="E3">
+        <v>105169.5</v>
+      </c>
       <c r="F3">
-        <v>105169.5</v>
+        <v>104519.75</v>
       </c>
       <c r="G3">
-        <v>104519.75</v>
+        <v>104370.5</v>
       </c>
       <c r="H3">
         <v>104370.5</v>
@@ -4645,7 +6156,7 @@
         <v>104370.5</v>
       </c>
       <c r="J3">
-        <v>104370.5</v>
+        <v>104320</v>
       </c>
       <c r="K3">
         <v>104320</v>
@@ -4656,19 +6167,19 @@
       <c r="M3">
         <v>104320</v>
       </c>
-      <c r="N3">
-        <v>104320</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
         <v>126999</v>
       </c>
+      <c r="E4">
+        <v>78116.5</v>
+      </c>
       <c r="F4">
-        <v>78116.5</v>
+        <v>75317.5</v>
       </c>
       <c r="G4">
         <v>75317.5</v>
@@ -4677,25 +6188,22 @@
         <v>75317.5</v>
       </c>
       <c r="I4">
-        <v>75317.5</v>
+        <v>73435</v>
       </c>
       <c r="J4">
         <v>73435</v>
       </c>
       <c r="K4">
-        <v>73435</v>
+        <v>72518</v>
       </c>
       <c r="L4">
-        <v>72518</v>
+        <v>70437</v>
       </c>
       <c r="M4">
         <v>70437</v>
       </c>
-      <c r="N4">
-        <v>70437</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4705,11 +6213,14 @@
       <c r="D5">
         <v>51939.5</v>
       </c>
+      <c r="E5">
+        <v>48241</v>
+      </c>
       <c r="F5">
-        <v>48241</v>
+        <v>45300.75</v>
       </c>
       <c r="G5">
-        <v>45300.75</v>
+        <v>45295.75</v>
       </c>
       <c r="H5">
         <v>45295.75</v>
@@ -4721,7 +6232,7 @@
         <v>45295.75</v>
       </c>
       <c r="K5">
-        <v>45295.75</v>
+        <v>44201.25</v>
       </c>
       <c r="L5">
         <v>44201.25</v>
@@ -4729,11 +6240,8 @@
       <c r="M5">
         <v>44201.25</v>
       </c>
-      <c r="N5">
-        <v>44201.25</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4743,20 +6251,23 @@
       <c r="D6">
         <v>57779</v>
       </c>
+      <c r="E6">
+        <v>54951</v>
+      </c>
       <c r="F6">
-        <v>54951</v>
+        <v>49292</v>
       </c>
       <c r="G6">
-        <v>49292</v>
+        <v>47123</v>
       </c>
       <c r="H6">
         <v>47123</v>
       </c>
       <c r="I6">
-        <v>47123</v>
+        <v>42550</v>
       </c>
       <c r="J6">
-        <v>42550</v>
+        <v>42384</v>
       </c>
       <c r="K6">
         <v>42384</v>
@@ -4767,11 +6278,8 @@
       <c r="M6">
         <v>42384</v>
       </c>
-      <c r="N6">
-        <v>42384</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>174</v>
       </c>
@@ -4779,13 +6287,250 @@
         <v>69.665999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8*1000-B8*999</f>
         <v>104403.666</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>28999</v>
+      </c>
+      <c r="D15">
+        <f>(B2-D2)/B2</f>
+        <v>0.45173739453781825</v>
+      </c>
+      <c r="E15">
+        <f>(B2-E2)/B2</f>
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="F15">
+        <f>(B2-F2)/B2</f>
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="G15">
+        <f>(B2-G2)/B2</f>
+        <v>0.46470211331767913</v>
+      </c>
+      <c r="H15">
+        <f>(B2-H2)/B2</f>
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="I15">
+        <f>(B2-I2)/B2</f>
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="J15">
+        <f>(B2-J2)/B2</f>
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="K15">
+        <f>(B2-K2)/B2</f>
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="L15">
+        <f>(B2-L2)/B2</f>
+        <v>0.46655209961407695</v>
+      </c>
+      <c r="M15">
+        <f>(B2-M2)/B2</f>
+        <v>0.46655209961407695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>22999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D19" si="0">(B3-D3)/B3</f>
+        <v>0.38651472913256496</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E19" si="1">(B3-E3)/B3</f>
+        <v>0.41245761149503629</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F19" si="2">(B3-F3)/B3</f>
+        <v>0.41608752004201138</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="3">(B3-G3)/B3</f>
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H19" si="4">(B3-H3)/B3</f>
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I19" si="5">(B3-I3)/B3</f>
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="6">(B3-J3)/B3</f>
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K19" si="7">(B3-K3)/B3</f>
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L18" si="8">(B3-L3)/B3</f>
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="9">(B3-M3)/B3</f>
+        <v>0.41720344806395565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>22999</v>
+      </c>
+      <c r="E17">
+        <f>(B4-F4)/B4</f>
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="F17">
+        <f>(B4-F4)/B4</f>
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="G17">
+        <f>(B4-H4)/B4</f>
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>0.42898762982385685</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>0.44537358561878437</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="9"/>
+        <v>0.44537358561878437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>20999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.52348645400416516</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.55741795796291704</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.58439297608234941</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="9"/>
+        <v>0.59448022458921645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>24999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.46991256800521108</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.49585776016293726</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.54777566766667585</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>0.60962944614170778</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="L19">
+        <f>(B6-L6)/B6</f>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="9"/>
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E342A2-DA31-400C-8AEC-48B60693B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C152EA9-413B-433B-A39B-D5819EF10C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="30930" yWindow="2280" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4694,16 +4694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C152EA9-413B-433B-A39B-D5819EF10C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2E976-3339-4EEA-A7D6-203C6A2A7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="2280" windowWidth="22800" windowHeight="11385" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5115,7 +5115,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6049,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2E976-3339-4EEA-A7D6-203C6A2A7E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FE8F30-0034-4DF5-BD88-645631E2F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="2430" yWindow="5895" windowWidth="20925" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,62 +157,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Small benchmarks sensitivity</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -233,7 +178,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -242,8 +187,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -252,6 +197,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -344,7 +290,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -353,8 +299,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -363,6 +309,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -455,7 +402,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -464,8 +411,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -474,6 +421,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -563,7 +511,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -572,16 +520,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -674,7 +621,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -683,16 +630,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -790,6 +736,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -797,7 +757,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -829,7 +789,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -867,7 +827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -896,20 +856,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -917,7 +863,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -931,13 +877,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Depth</a:t>
+                  <a:t>Depth reduction</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> reduction</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -954,7 +895,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -976,8 +917,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1014,7 +961,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1057,7 +1004,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3182,7 +3129,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3193,7 +3140,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3216,18 +3163,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3239,7 +3186,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3247,11 +3194,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3283,35 +3230,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3323,30 +3280,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3368,15 +3329,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3391,15 +3350,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3410,17 +3369,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3429,10 +3387,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3448,21 +3406,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3481,17 +3433,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3500,17 +3451,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3519,17 +3469,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3550,7 +3499,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3558,7 +3507,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3571,6 +3520,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3578,10 +3538,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3602,7 +3562,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3611,14 +3571,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3632,7 +3592,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3648,8 +3608,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3665,6 +3625,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3672,14 +3643,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5112,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11FD536-9E0E-4A1B-B48E-F044E8842DD6}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5546,6 +5511,139 @@
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
+        <v>0.46572862914516583</v>
+      </c>
+    </row>
+    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.58389599641366952</v>
+      </c>
+      <c r="N22">
+        <v>0.317361624418453</v>
+      </c>
+      <c r="P22">
+        <v>0.55840754321634367</v>
+      </c>
+      <c r="Q22">
+        <v>0.4097663906556262</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0.60802786302975964</v>
+      </c>
+      <c r="N23">
+        <v>0.33330579590416975</v>
+      </c>
+      <c r="O23">
+        <v>0.19122570546545503</v>
+      </c>
+      <c r="P23">
+        <v>0.5679222820134292</v>
+      </c>
+      <c r="Q23">
+        <v>0.40985639425577025</v>
+      </c>
+    </row>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0.61375219835166728</v>
+      </c>
+      <c r="N24">
+        <v>0.33474498891256138</v>
+      </c>
+      <c r="O24">
+        <v>0.28904517587721207</v>
+      </c>
+      <c r="P24">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q24">
+        <v>0.43377735109404375</v>
+      </c>
+    </row>
+    <row r="25" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0.6160374495672265</v>
+      </c>
+      <c r="N25">
+        <v>0.34343232314448457</v>
+      </c>
+      <c r="O25">
+        <v>0.33689508239488675</v>
+      </c>
+      <c r="P25">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q25">
+        <v>0.4517580703228129</v>
+      </c>
+    </row>
+    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0.62064209110658985</v>
+      </c>
+      <c r="N26">
+        <v>0.35211965737640766</v>
+      </c>
+      <c r="O26">
+        <v>0.33905821992260532</v>
+      </c>
+      <c r="P26">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q26">
+        <v>0.4517580703228129</v>
+      </c>
+    </row>
+    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0.6286747818890307</v>
+      </c>
+      <c r="N27">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="O27">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="P27">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q27">
+        <v>0.4517580703228129</v>
+      </c>
+    </row>
+    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="N28">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="O28">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="P28">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q28">
+        <v>0.46572862914516583</v>
+      </c>
+    </row>
+    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="N29">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="O29">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="P29">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="Q29">
         <v>0.46572862914516583</v>
       </c>
     </row>
@@ -5557,15 +5655,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -5609,7 +5707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +5742,7 @@
         <v>35811</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +5777,7 @@
         <v>40780.25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5713,8 +5811,35 @@
       <c r="L4">
         <v>21513.5</v>
       </c>
+      <c r="O4">
+        <v>0.50854344724596323</v>
+      </c>
+      <c r="P4">
+        <v>0.51054680729076385</v>
+      </c>
+      <c r="Q4">
+        <v>0.51122348297977305</v>
+      </c>
+      <c r="R4">
+        <v>0.51255016733556447</v>
+      </c>
+      <c r="S4">
+        <v>0.51586687822504296</v>
+      </c>
+      <c r="T4">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="U4">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="V4">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="W4">
+        <v>0.52251363351511348</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5748,8 +5873,35 @@
       <c r="L5">
         <v>23163.33</v>
       </c>
+      <c r="O5">
+        <v>0.35973592266571192</v>
+      </c>
+      <c r="P5">
+        <v>0.45895628341090633</v>
+      </c>
+      <c r="Q5">
+        <v>0.46138841220261978</v>
+      </c>
+      <c r="R5">
+        <v>0.46574957715527354</v>
+      </c>
+      <c r="S5">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T5">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="U5">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="V5">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="W5">
+        <v>0.49653390782602252</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5783,8 +5935,93 @@
       <c r="L6">
         <v>25109.67</v>
       </c>
+      <c r="O6">
+        <v>0.449664144606502</v>
+      </c>
+      <c r="P6">
+        <v>0.52331647766938993</v>
+      </c>
+      <c r="Q6">
+        <v>0.50534915753127418</v>
+      </c>
+      <c r="R6">
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="S6">
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="T6">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="U6">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="V6">
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="W6">
+        <v>0.59407724674050455</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0.57119788848997521</v>
+      </c>
+      <c r="P7">
+        <v>0.57827505368940468</v>
+      </c>
+      <c r="Q7">
+        <v>0.61917736356333708</v>
+      </c>
+      <c r="R7">
+        <v>0.61972065115821562</v>
+      </c>
+      <c r="S7">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="T7">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="U7">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V7">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="W7">
+        <v>0.62026705355825507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="P8">
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="Q8">
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="R8">
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="S8">
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="T8">
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="U8">
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="V8">
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="W8">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>25</v>
       </c>
@@ -5804,7 +6041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>49</v>
       </c>
@@ -5812,13 +6049,42 @@
         <v>21.666</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12*1000-B12*999</f>
         <v>27355.666000000001</v>
       </c>
+      <c r="R13">
+        <v>0.50854344724596323</v>
+      </c>
+      <c r="S13">
+        <v>0.35973592266571192</v>
+      </c>
+      <c r="U13">
+        <v>0.57119788848997521</v>
+      </c>
+      <c r="V13">
+        <v>0.55824964343677763</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0.51054680729076385</v>
+      </c>
+      <c r="S14">
+        <v>0.45895628341090633</v>
+      </c>
+      <c r="T14">
+        <v>0.52331647766938993</v>
+      </c>
+      <c r="U14">
+        <v>0.57827505368940468</v>
+      </c>
+      <c r="V14">
+        <v>0.55824964343677763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5861,8 +6127,23 @@
         <f>(B2-L2)/B2</f>
         <v>0.52251363351511348</v>
       </c>
+      <c r="R15">
+        <v>0.51122348297977305</v>
+      </c>
+      <c r="S15">
+        <v>0.46138841220261978</v>
+      </c>
+      <c r="T15">
+        <v>0.50534915753127418</v>
+      </c>
+      <c r="U15">
+        <v>0.61917736356333708</v>
+      </c>
+      <c r="V15">
+        <v>0.56514041213790389</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5905,8 +6186,23 @@
         <f t="shared" ref="L16:L18" si="8">(B3-L3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
+      <c r="R16">
+        <v>0.51255016733556447</v>
+      </c>
+      <c r="S16">
+        <v>0.46574957715527354</v>
+      </c>
+      <c r="T16">
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="U16">
+        <v>0.61972065115821562</v>
+      </c>
+      <c r="V16">
+        <v>0.56514041213790389</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -5949,8 +6245,23 @@
         <f t="shared" si="8"/>
         <v>0.59407724674050455</v>
       </c>
+      <c r="R17">
+        <v>0.51586687822504296</v>
+      </c>
+      <c r="S17">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T17">
+        <v>0.57143531010019055</v>
+      </c>
+      <c r="U17">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V17">
+        <v>0.58835931736585845</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5993,8 +6304,23 @@
         <f t="shared" si="8"/>
         <v>0.62026705355825507</v>
       </c>
+      <c r="R18">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S18">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T18">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="U18">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V18">
+        <v>0.58835931736585845</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6035,6 +6361,55 @@
       </c>
       <c r="L19">
         <f>(B6-L6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="R19">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S19">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T19">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="U19">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V19">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S20">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T20">
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="U20">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V20">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S21">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T21">
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="U21">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V21">
         <v>0.58835931736585845</v>
       </c>
     </row>
@@ -6046,10 +6421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="A31:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6529,6 +6904,330 @@
         <v>0.61115239589354031</v>
       </c>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.45173739453781825</v>
+      </c>
+      <c r="B25">
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="C25">
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="D25">
+        <v>0.46470211331767913</v>
+      </c>
+      <c r="E25">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="F25">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="G25">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="H25">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="I25">
+        <v>0.46655209961407695</v>
+      </c>
+      <c r="J25">
+        <v>0.46655209961407695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.38651472913256496</v>
+      </c>
+      <c r="B26">
+        <v>0.41245761149503629</v>
+      </c>
+      <c r="C26">
+        <v>0.41608752004201138</v>
+      </c>
+      <c r="D26">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="E26">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="F26">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="G26">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="H26">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="I26">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="J26">
+        <v>0.41720344806395565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="C27">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="D27">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="E27">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="F27">
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="G27">
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="H27">
+        <v>0.42898762982385685</v>
+      </c>
+      <c r="I27">
+        <v>0.44537358561878437</v>
+      </c>
+      <c r="J27">
+        <v>0.44537358561878437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.52348645400416516</v>
+      </c>
+      <c r="B28">
+        <v>0.55741795796291704</v>
+      </c>
+      <c r="C28">
+        <v>0.58439297608234941</v>
+      </c>
+      <c r="D28">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="E28">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="F28">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="G28">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="H28">
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="I28">
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="J28">
+        <v>0.59448022458921645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.46991256800521108</v>
+      </c>
+      <c r="B29">
+        <v>0.49585776016293726</v>
+      </c>
+      <c r="C29">
+        <v>0.54777566766667585</v>
+      </c>
+      <c r="D29">
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="E29">
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="F29">
+        <v>0.60962944614170778</v>
+      </c>
+      <c r="G29">
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="H29">
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="I29">
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="J29">
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.45173739453781825</v>
+      </c>
+      <c r="B31">
+        <v>0.38651472913256496</v>
+      </c>
+      <c r="D31">
+        <v>0.52348645400416516</v>
+      </c>
+      <c r="E31">
+        <v>0.46991256800521108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="B32">
+        <v>0.41245761149503629</v>
+      </c>
+      <c r="C32">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="D32">
+        <v>0.55741795796291704</v>
+      </c>
+      <c r="E32">
+        <v>0.49585776016293726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.46162398797045945</v>
+      </c>
+      <c r="B33">
+        <v>0.41608752004201138</v>
+      </c>
+      <c r="C33">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="D33">
+        <v>0.58439297608234941</v>
+      </c>
+      <c r="E33">
+        <v>0.54777566766667585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.46470211331767913</v>
+      </c>
+      <c r="B34">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="C34">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="D34">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="E34">
+        <v>0.56767493279754855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="B35">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="C35">
+        <v>0.40694414916652888</v>
+      </c>
+      <c r="D35">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="E35">
+        <v>0.56767493279754855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="B36">
+        <v>0.41692132358281331</v>
+      </c>
+      <c r="C36">
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="D36">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="E36">
+        <v>0.60962944614170778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="B37">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="C37">
+        <v>0.42176710052835059</v>
+      </c>
+      <c r="D37">
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="E37">
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.46593728935341222</v>
+      </c>
+      <c r="B38">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="C38">
+        <v>0.42898762982385685</v>
+      </c>
+      <c r="D38">
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="E38">
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.46655209961407695</v>
+      </c>
+      <c r="B39">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="C39">
+        <v>0.44537358561878437</v>
+      </c>
+      <c r="D39">
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="E39">
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.46655209961407695</v>
+      </c>
+      <c r="B40">
+        <v>0.41720344806395565</v>
+      </c>
+      <c r="C40">
+        <v>0.44537358561878437</v>
+      </c>
+      <c r="D40">
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="E40">
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FE8F30-0034-4DF5-BD88-645631E2F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A50A9-166D-4641-896C-2E38F77FB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="5895" windowWidth="20925" windowHeight="14205" activeTab="2" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="2430" yWindow="5895" windowWidth="20925" windowHeight="14205" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5079,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11FD536-9E0E-4A1B-B48E-F044E8842DD6}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M22" sqref="M22:Q29"/>
     </sheetView>
   </sheetViews>
@@ -6423,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2EC03-C33F-4CF0-9E02-97B139C0AFFE}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="A31:E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A50A9-166D-4641-896C-2E38F77FB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951E2C2-A023-458F-825E-A0BBE22F3FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="5895" windowWidth="20925" windowHeight="14205" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>bv15</t>
   </si>
@@ -89,6 +90,27 @@
   </si>
   <si>
     <t>vqe14</t>
+  </si>
+  <si>
+    <t>hwea5</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>hwea15</t>
+  </si>
+  <si>
+    <t>hwea27</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -212,25 +234,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,25 +346,25 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,7 +414,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -436,32 +458,32 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$K$14</c:f>
+              <c:f>Sheet1!$D$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -501,7 +523,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -543,32 +565,32 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$K$15</c:f>
+              <c:f>Sheet1!$D$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -611,7 +633,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -653,32 +675,32 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$K$16</c:f>
+              <c:f>Sheet1!$D$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1349,7 +1371,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$17</c:f>
+              <c:f>Sheet2!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,7 +1442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$17:$L$17</c:f>
+              <c:f>Sheet2!$D$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1466,7 +1488,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$18</c:f>
+              <c:f>Sheet2!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1537,7 +1559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$18:$L$18</c:f>
+              <c:f>Sheet2!$D$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1583,7 +1605,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>Sheet2!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1654,7 +1676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$19:$L$19</c:f>
+              <c:f>Sheet2!$D$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2334,7 +2356,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$17</c:f>
+              <c:f>Sheet3!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2408,7 +2430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$17:$M$17</c:f>
+              <c:f>Sheet3!$D$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2454,7 +2476,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$18</c:f>
+              <c:f>Sheet3!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,7 +2550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$18:$M$18</c:f>
+              <c:f>Sheet3!$D$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2577,7 +2599,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$19</c:f>
+              <c:f>Sheet3!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2651,7 +2673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$19:$M$19</c:f>
+              <c:f>Sheet3!$D$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4659,16 +4681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4700,16 +4722,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5077,10 +5099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11FD536-9E0E-4A1B-B48E-F044E8842DD6}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" activeCellId="4" sqref="D17 F17 H17 J17 K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,31 +5118,31 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N1">
         <v>12</v>
@@ -5302,6 +5324,38 @@
       </c>
       <c r="K6">
         <v>13356.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>26999</v>
+      </c>
+      <c r="D7">
+        <v>14586</v>
+      </c>
+      <c r="E7">
+        <v>12254</v>
+      </c>
+      <c r="F7">
+        <v>12172</v>
+      </c>
+      <c r="G7">
+        <v>11755</v>
+      </c>
+      <c r="H7">
+        <v>11254</v>
+      </c>
+      <c r="I7">
+        <v>11254</v>
+      </c>
+      <c r="J7">
+        <v>11004</v>
+      </c>
+      <c r="K7">
+        <v>11004</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5366,15 +5420,15 @@
         <v>22999</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D16" si="0">(B3-D3)/B3</f>
+        <f t="shared" ref="D13:D17" si="0">(B3-D3)/B3</f>
         <v>0.317361624418453</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E16" si="1">(B3-E3)/B3</f>
+        <f t="shared" ref="E13:E17" si="1">(B3-E3)/B3</f>
         <v>0.33330579590416975</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F16" si="2">(B3-F3)/B3</f>
+        <f t="shared" ref="F13:F17" si="2">(B3-F3)/B3</f>
         <v>0.33474498891256138</v>
       </c>
       <c r="G13">
@@ -5400,250 +5454,327 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>22999</v>
+        <v>20999</v>
+      </c>
+      <c r="D14">
+        <f>(B5-D5)/B5</f>
+        <v>0.55840754321634367</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.19122570546545503</v>
+        <f>(B5-E5)/B5</f>
+        <v>0.5679222820134292</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0.28904517587721207</v>
+        <f>(B5-F5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0.33689508239488675</v>
+        <f>(B5-G5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>0.33905821992260532</v>
+        <f>(B5-H5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
-        <v>0.35645028044697596</v>
+        <f>(B5-I5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
-        <v>0.35645028044697596</v>
+        <f>(B5-J5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
-        <v>0.35645028044697596</v>
+        <f>(B5-K5)/B5</f>
+        <v>0.57743702081051484</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>20999</v>
+        <v>24999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.55840754321634367</v>
+        <f>(B6-D6)/B6</f>
+        <v>0.4097663906556262</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.5679222820134292</v>
+        <f>(B6-E6)/B6</f>
+        <v>0.40985639425577025</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-F6)/B6</f>
+        <v>0.43377735109404375</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-G6)/B6</f>
+        <v>0.4517580703228129</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-H6)/B6</f>
+        <v>0.4517580703228129</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-I6)/B6</f>
+        <v>0.4517580703228129</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-J6)/B6</f>
+        <v>0.46572862914516583</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
-        <v>0.57743702081051484</v>
+        <f>(B6-K6)/B6</f>
+        <v>0.46572862914516583</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>24999</v>
+        <v>26999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>(B7-D7)/B7</f>
+        <v>0.45975776880625208</v>
+      </c>
+      <c r="E16">
+        <f>(B7-E7)/B7</f>
+        <v>0.54613133819771098</v>
+      </c>
+      <c r="F16">
+        <f>(B7-F7)/B7</f>
+        <v>0.54916848772176752</v>
+      </c>
+      <c r="G16">
+        <f>(B7-G7)/B7</f>
+        <v>0.56461350420385936</v>
+      </c>
+      <c r="H16">
+        <f>(B7-H7)/B7</f>
+        <v>0.58316974702766766</v>
+      </c>
+      <c r="I16">
+        <f>(B7-I7)/B7</f>
+        <v>0.58316974702766766</v>
+      </c>
+      <c r="J16">
+        <f>(B7-J7)/B7</f>
+        <v>0.59242934923515689</v>
+      </c>
+      <c r="K16">
+        <f>(B7-K7)/B7</f>
+        <v>0.59242934923515689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D12:D16)</f>
+        <v>0.46583786470206884</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:K17" si="8">AVERAGE(E12:E16)</f>
+        <v>0.49304873468016802</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
+        <v>0.50177600937811095</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>0.51065567360977959</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>0.51702531732879853</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0.52209809314779387</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>0.52858598196950757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>22999</v>
+      </c>
+      <c r="E20">
+        <f>(B4-E4)/B4</f>
+        <v>0.19122570546545503</v>
+      </c>
+      <c r="F20">
+        <f>(B4-F4)/B4</f>
+        <v>0.28904517587721207</v>
+      </c>
+      <c r="G20">
+        <f>(B4-G4)/B4</f>
+        <v>0.33689508239488675</v>
+      </c>
+      <c r="H20">
+        <f>(B4-H4)/B4</f>
+        <v>0.33905821992260532</v>
+      </c>
+      <c r="I20">
+        <f>(B4-I4)/B4</f>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="J20">
+        <f>(B4-J4)/B4</f>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="K20">
+        <f>(B4-K4)/B4</f>
+        <v>0.35645028044697596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>0.58389599641366952</v>
+      </c>
+      <c r="U22">
+        <v>0.317361624418453</v>
+      </c>
+      <c r="W22">
+        <v>0.55840754321634367</v>
+      </c>
+      <c r="X22">
         <v>0.4097663906556262</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>0.60802786302975964</v>
+      </c>
+      <c r="U23">
+        <v>0.33330579590416975</v>
+      </c>
+      <c r="V23">
+        <v>0.19122570546545503</v>
+      </c>
+      <c r="W23">
+        <v>0.5679222820134292</v>
+      </c>
+      <c r="X23">
         <v>0.40985639425577025</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>0.61375219835166728</v>
+      </c>
+      <c r="U24">
+        <v>0.33474498891256138</v>
+      </c>
+      <c r="V24">
+        <v>0.28904517587721207</v>
+      </c>
+      <c r="W24">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="X24">
         <v>0.43377735109404375</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>0.6160374495672265</v>
+      </c>
+      <c r="U25">
+        <v>0.34343232314448457</v>
+      </c>
+      <c r="V25">
+        <v>0.33689508239488675</v>
+      </c>
+      <c r="W25">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="X25">
         <v>0.4517580703228129</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>0.62064209110658985</v>
+      </c>
+      <c r="U26">
+        <v>0.35211965737640766</v>
+      </c>
+      <c r="V26">
+        <v>0.33905821992260532</v>
+      </c>
+      <c r="W26">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="X26">
         <v>0.4517580703228129</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>0.6286747818890307</v>
+      </c>
+      <c r="U27">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="V27">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="W27">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="X27">
         <v>0.4517580703228129</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="U28">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="V28">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="W28">
+        <v>0.57743702081051484</v>
+      </c>
+      <c r="X28">
         <v>0.46572862914516583</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="7"/>
-        <v>0.46572862914516583</v>
-      </c>
-    </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M22">
-        <v>0.58389599641366952</v>
-      </c>
-      <c r="N22">
-        <v>0.317361624418453</v>
-      </c>
-      <c r="P22">
-        <v>0.55840754321634367</v>
-      </c>
-      <c r="Q22">
-        <v>0.4097663906556262</v>
-      </c>
-    </row>
-    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M23">
-        <v>0.60802786302975964</v>
-      </c>
-      <c r="N23">
-        <v>0.33330579590416975</v>
-      </c>
-      <c r="O23">
-        <v>0.19122570546545503</v>
-      </c>
-      <c r="P23">
-        <v>0.5679222820134292</v>
-      </c>
-      <c r="Q23">
-        <v>0.40985639425577025</v>
-      </c>
-    </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M24">
-        <v>0.61375219835166728</v>
-      </c>
-      <c r="N24">
-        <v>0.33474498891256138</v>
-      </c>
-      <c r="O24">
-        <v>0.28904517587721207</v>
-      </c>
-      <c r="P24">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="U29">
+        <v>0.36945084568894299</v>
+      </c>
+      <c r="V29">
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="W29">
         <v>0.57743702081051484</v>
       </c>
-      <c r="Q24">
-        <v>0.43377735109404375</v>
-      </c>
-    </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <v>0.6160374495672265</v>
-      </c>
-      <c r="N25">
-        <v>0.34343232314448457</v>
-      </c>
-      <c r="O25">
-        <v>0.33689508239488675</v>
-      </c>
-      <c r="P25">
-        <v>0.57743702081051484</v>
-      </c>
-      <c r="Q25">
-        <v>0.4517580703228129</v>
-      </c>
-    </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M26">
-        <v>0.62064209110658985</v>
-      </c>
-      <c r="N26">
-        <v>0.35211965737640766</v>
-      </c>
-      <c r="O26">
-        <v>0.33905821992260532</v>
-      </c>
-      <c r="P26">
-        <v>0.57743702081051484</v>
-      </c>
-      <c r="Q26">
-        <v>0.4517580703228129</v>
-      </c>
-    </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M27">
-        <v>0.6286747818890307</v>
-      </c>
-      <c r="N27">
-        <v>0.36945084568894299</v>
-      </c>
-      <c r="O27">
-        <v>0.35645028044697596</v>
-      </c>
-      <c r="P27">
-        <v>0.57743702081051484</v>
-      </c>
-      <c r="Q27">
-        <v>0.4517580703228129</v>
-      </c>
-    </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <v>0.63788406496775751</v>
-      </c>
-      <c r="N28">
-        <v>0.36945084568894299</v>
-      </c>
-      <c r="O28">
-        <v>0.35645028044697596</v>
-      </c>
-      <c r="P28">
-        <v>0.57743702081051484</v>
-      </c>
-      <c r="Q28">
-        <v>0.46572862914516583</v>
-      </c>
-    </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M29">
-        <v>0.63788406496775751</v>
-      </c>
-      <c r="N29">
-        <v>0.36945084568894299</v>
-      </c>
-      <c r="O29">
-        <v>0.35645028044697596</v>
-      </c>
-      <c r="P29">
-        <v>0.57743702081051484</v>
-      </c>
-      <c r="Q29">
+      <c r="X29">
         <v>0.46572862914516583</v>
       </c>
     </row>
@@ -5655,10 +5786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:V21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" activeCellId="4" sqref="D20 F20 H20 J20 L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5964,6 +6095,39 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>66999</v>
+      </c>
+      <c r="D7">
+        <v>16036</v>
+      </c>
+      <c r="E7">
+        <v>14206</v>
+      </c>
+      <c r="F7">
+        <v>13870</v>
+      </c>
+      <c r="G7">
+        <v>13787</v>
+      </c>
+      <c r="H7">
+        <v>13122</v>
+      </c>
+      <c r="I7">
+        <v>13122</v>
+      </c>
+      <c r="J7">
+        <v>13122</v>
+      </c>
+      <c r="K7">
+        <v>12954</v>
+      </c>
+      <c r="L7">
+        <v>12290</v>
+      </c>
       <c r="O7">
         <v>0.57119788848997521</v>
       </c>
@@ -6151,7 +6315,7 @@
         <v>22999</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D19" si="0">(B3-D3)/B3</f>
+        <f t="shared" ref="D16:D18" si="0">(B3-D3)/B3</f>
         <v>0.35973592266571192</v>
       </c>
       <c r="E16">
@@ -6204,212 +6368,290 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>20999</v>
+      </c>
+      <c r="D17">
+        <f>(B5-D5)/B5</f>
+        <v>0.57119788848997521</v>
+      </c>
+      <c r="E17">
+        <f>(B5-E5)/B5</f>
+        <v>0.57827505368940468</v>
+      </c>
+      <c r="F17">
+        <f>(B5-F5)/B5</f>
+        <v>0.61917736356333708</v>
+      </c>
+      <c r="G17">
+        <f>(B5-G5)/B5</f>
+        <v>0.61972065115821562</v>
+      </c>
+      <c r="H17">
+        <f>(B5-H5)/B5</f>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="I17">
+        <f>(B5-I5)/B5</f>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="J17">
+        <f>(B5-J5)/B5</f>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="K17">
+        <f>(B5-K5)/B5</f>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="L17">
+        <f>(B5-L5)/B5</f>
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="R17">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S17">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T17">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="U17">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V17">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>24999</v>
+      </c>
+      <c r="D18">
+        <f>(B6-D6)/B6</f>
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="E18">
+        <f>(B6-E6)/B6</f>
+        <v>0.55824964343677763</v>
+      </c>
+      <c r="F18">
+        <f>(B6-F6)/B6</f>
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="G18">
+        <f>(B6-G6)/B6</f>
+        <v>0.56514041213790389</v>
+      </c>
+      <c r="H18">
+        <f>(B6-H6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="I18">
+        <f>(B6-I6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="J18">
+        <f>(B6-J6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="K18">
+        <f>(B6-K6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="L18">
+        <f>(B6-L6)/B6</f>
+        <v>0.58835931736585845</v>
+      </c>
+      <c r="R18">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S18">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T18">
+        <v>0.59501594369705091</v>
+      </c>
+      <c r="U18">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V18">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f>(B7-D7)/B7</f>
+        <v>0.76065314407677731</v>
+      </c>
+      <c r="E19">
+        <f>(B7-E7)/B7</f>
+        <v>0.78796698458185943</v>
+      </c>
+      <c r="F19">
+        <f>(B7-F7)/B7</f>
+        <v>0.79298198480574333</v>
+      </c>
+      <c r="G19">
+        <f>(B7-G7)/B7</f>
+        <v>0.79422080926580996</v>
+      </c>
+      <c r="H19">
+        <f>(B7-H7)/B7</f>
+        <v>0.80414633054224693</v>
+      </c>
+      <c r="I19">
+        <f>(B7-I7)/B7</f>
+        <v>0.80414633054224693</v>
+      </c>
+      <c r="J19">
+        <f>(B7-J7)/B7</f>
+        <v>0.80414633054224693</v>
+      </c>
+      <c r="K19">
+        <f>(B7-K7)/B7</f>
+        <v>0.80665383065418883</v>
+      </c>
+      <c r="L19">
+        <f>(B7-L7)/B7</f>
+        <v>0.81656442633472137</v>
+      </c>
+      <c r="R19">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S19">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T19">
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="U19">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V19">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D15:D19)</f>
+        <v>0.55167600918304105</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:L20" si="9">AVERAGE(E15:E19)</f>
+        <v>0.57879895448194241</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>0.58998233113787546</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>0.59147632341055345</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>0.60503469750348526</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>0.60636404856149928</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>0.60636404856149928</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>0.60686554858388764</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="R20">
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="S20">
+        <v>0.49653390782602252</v>
+      </c>
+      <c r="T20">
+        <v>0.59407724674050455</v>
+      </c>
+      <c r="U20">
+        <v>0.62026705355825507</v>
+      </c>
+      <c r="V20">
+        <v>0.58835931736585845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>22999</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D23">
+        <f>(B4-D4)/B4</f>
         <v>0.449664144606502</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <f>(B4-F4)/B4</f>
         <v>0.52331647766938993</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <f>(B4-E4)/B4</f>
         <v>0.50534915753127418</v>
       </c>
-      <c r="G17">
+      <c r="G23">
         <f>(B4-H4)/B4</f>
         <v>0.57143531010019055</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
+      <c r="H23">
+        <f>(B4-H4)/B4</f>
         <v>0.57143531010019055</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
+      <c r="I23">
+        <f>(B4-I4)/B4</f>
         <v>0.59501594369705091</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
+      <c r="J23">
+        <f>(B4-J4)/B4</f>
         <v>0.59501594369705091</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="7"/>
+      <c r="K23">
+        <f>(B4-K4)/B4</f>
         <v>0.59407724674050455</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
+      <c r="L23">
+        <f>(B4-L4)/B4</f>
         <v>0.59407724674050455</v>
       </c>
-      <c r="R17">
+      <c r="R23">
         <v>0.51586687822504296</v>
       </c>
-      <c r="S17">
+      <c r="S23">
         <v>0.49653390782602252</v>
       </c>
-      <c r="T17">
+      <c r="T23">
         <v>0.57143531010019055</v>
       </c>
-      <c r="U17">
+      <c r="U23">
         <v>0.62026705355825507</v>
       </c>
-      <c r="V17">
-        <v>0.58835931736585845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>20999</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.57119788848997521</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.57827505368940468</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0.61917736356333708</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.61972065115821562</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="7"/>
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="R18">
-        <v>0.52251363351511348</v>
-      </c>
-      <c r="S18">
-        <v>0.49653390782602252</v>
-      </c>
-      <c r="T18">
-        <v>0.59501594369705091</v>
-      </c>
-      <c r="U18">
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="V18">
-        <v>0.58835931736585845</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>24999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.55824964343677763</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.55824964343677763</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0.56514041213790389</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.56514041213790389</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>0.58835931736585845</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>0.58835931736585845</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>0.58835931736585845</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="7"/>
-        <v>0.58835931736585845</v>
-      </c>
-      <c r="L19">
-        <f>(B6-L6)/B6</f>
-        <v>0.58835931736585845</v>
-      </c>
-      <c r="R19">
-        <v>0.52251363351511348</v>
-      </c>
-      <c r="S19">
-        <v>0.49653390782602252</v>
-      </c>
-      <c r="T19">
-        <v>0.59501594369705091</v>
-      </c>
-      <c r="U19">
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="V19">
-        <v>0.58835931736585845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R20">
-        <v>0.52251363351511348</v>
-      </c>
-      <c r="S20">
-        <v>0.49653390782602252</v>
-      </c>
-      <c r="T20">
-        <v>0.59407724674050455</v>
-      </c>
-      <c r="U20">
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="V20">
-        <v>0.58835931736585845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R21">
-        <v>0.52251363351511348</v>
-      </c>
-      <c r="S21">
-        <v>0.49653390782602252</v>
-      </c>
-      <c r="T21">
-        <v>0.59407724674050455</v>
-      </c>
-      <c r="U21">
-        <v>0.62026705355825507</v>
-      </c>
-      <c r="V21">
+      <c r="V23">
         <v>0.58835931736585845</v>
       </c>
     </row>
@@ -6424,7 +6666,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D20" sqref="D20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6654,6 +6896,44 @@
         <v>42384</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>114999</v>
+      </c>
+      <c r="D7">
+        <v>18069</v>
+      </c>
+      <c r="E7">
+        <v>17154</v>
+      </c>
+      <c r="F7">
+        <v>15243</v>
+      </c>
+      <c r="G7">
+        <v>13909</v>
+      </c>
+      <c r="H7">
+        <v>13161</v>
+      </c>
+      <c r="I7">
+        <v>11830</v>
+      </c>
+      <c r="J7">
+        <v>11664</v>
+      </c>
+      <c r="K7">
+        <v>11499</v>
+      </c>
+      <c r="L7">
+        <v>11499</v>
+      </c>
+      <c r="M7">
+        <v>11499</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>174</v>
@@ -6766,142 +7046,232 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>20999</v>
+      </c>
+      <c r="D17">
+        <f>(B5-D5)/B5</f>
+        <v>0.52348645400416516</v>
+      </c>
+      <c r="E17">
+        <f>(B5-E5)/B5</f>
+        <v>0.55741795796291704</v>
+      </c>
+      <c r="F17">
+        <f>(B5-F5)/B5</f>
+        <v>0.58439297608234941</v>
+      </c>
+      <c r="G17">
+        <f>(B5-G5)/B5</f>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="H17">
+        <f>(B5-H5)/B5</f>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="I17">
+        <f>(B5-I5)/B5</f>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="J17">
+        <f>(B5-J5)/B5</f>
+        <v>0.58443884806282631</v>
+      </c>
+      <c r="K17">
+        <f>(B5-K5)/B5</f>
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="L17">
+        <f>(B5-L5)/B5</f>
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="M17">
+        <f>(B5-M5)/B5</f>
+        <v>0.59448022458921645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>24999</v>
+      </c>
+      <c r="D18">
+        <f>(B6-D6)/B6</f>
+        <v>0.46991256800521108</v>
+      </c>
+      <c r="E18">
+        <f>(B6-E6)/B6</f>
+        <v>0.49585776016293726</v>
+      </c>
+      <c r="F18">
+        <f>(B6-F6)/B6</f>
+        <v>0.54777566766667585</v>
+      </c>
+      <c r="G18">
+        <f>(B6-G6)/B6</f>
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="H18">
+        <f>(B6-H6)/B6</f>
+        <v>0.56767493279754855</v>
+      </c>
+      <c r="I18">
+        <f>(B6-I6)/B6</f>
+        <v>0.60962944614170778</v>
+      </c>
+      <c r="J18">
+        <f>(B6-J6)/B6</f>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="K18">
+        <f>(B6-K6)/B6</f>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="L18">
+        <f>(B6-L6)/B6</f>
+        <v>0.61115239589354031</v>
+      </c>
+      <c r="M18">
+        <f>(B6-M6)/B6</f>
+        <v>0.61115239589354031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <f>(B7-D7)/B7</f>
+        <v>0.84287689458169202</v>
+      </c>
+      <c r="E19">
+        <f>(B7-E7)/B7</f>
+        <v>0.85083348550856963</v>
+      </c>
+      <c r="F19">
+        <f>(B7-F7)/B7</f>
+        <v>0.86745102131322882</v>
+      </c>
+      <c r="G19">
+        <f>(B7-G7)/B7</f>
+        <v>0.87905112218367121</v>
+      </c>
+      <c r="H19">
+        <f>(B7-H7)/B7</f>
+        <v>0.8855555265697963</v>
+      </c>
+      <c r="I19">
+        <f>(B7-I7)/B7</f>
+        <v>0.89712954025687175</v>
+      </c>
+      <c r="J19">
+        <f>(B7-J7)/B7</f>
+        <v>0.89857303106983544</v>
+      </c>
+      <c r="K19">
+        <f>(B7-K7)/B7</f>
+        <v>0.90000782615501007</v>
+      </c>
+      <c r="L19">
+        <f>(B7-L7)/B7</f>
+        <v>0.90000782615501007</v>
+      </c>
+      <c r="M19">
+        <f>(B7-M7)/B7</f>
+        <v>0.90000782615501007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D15:D19)</f>
+        <v>0.53490560805229026</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:M20" si="10">AVERAGE(E15:E19)</f>
+        <v>0.55563816061998395</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="10"/>
+        <v>0.57546623461494506</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="10"/>
+        <v>0.58255766798890773</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="10"/>
+        <v>0.58410558407327939</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>0.59481128947952622</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="10"/>
+        <v>0.59546100248871403</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>0.59775623681102696</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>0.59787919886315988</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>0.59787919886315988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>22999</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <f>(B4-F4)/B4</f>
         <v>0.40694414916652888</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <f>(B4-F4)/B4</f>
         <v>0.40694414916652888</v>
       </c>
-      <c r="G17">
+      <c r="G23">
         <f>(B4-H4)/B4</f>
         <v>0.40694414916652888</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
+      <c r="H23">
+        <f>(B4-H4)/B4</f>
         <v>0.40694414916652888</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
+      <c r="I23">
+        <f>(B4-I4)/B4</f>
         <v>0.42176710052835059</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
+      <c r="J23">
+        <f>(B4-J4)/B4</f>
         <v>0.42176710052835059</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="7"/>
+      <c r="K23">
+        <f>(B4-K4)/B4</f>
         <v>0.42898762982385685</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
+      <c r="L23">
+        <f>(B4-L4)/B4</f>
         <v>0.44537358561878437</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="9"/>
+      <c r="M23">
+        <f>(B4-M4)/B4</f>
         <v>0.44537358561878437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>20999</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.52348645400416516</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.55741795796291704</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0.58439297608234941</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>0.58443884806282631</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>0.58443884806282631</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>0.58443884806282631</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>0.58443884806282631</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="7"/>
-        <v>0.59448022458921645</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>0.59448022458921645</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="9"/>
-        <v>0.59448022458921645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>24999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.46991256800521108</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.49585776016293726</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>0.54777566766667585</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.56767493279754855</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>0.56767493279754855</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>0.60962944614170778</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>0.61115239589354031</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="7"/>
-        <v>0.61115239589354031</v>
-      </c>
-      <c r="L19">
-        <f>(B6-L6)/B6</f>
-        <v>0.61115239589354031</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="9"/>
-        <v>0.61115239589354031</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7232,4 +7602,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9170FF10-5234-4BFC-9BE7-5D610E9EB753}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.46583786470206884</v>
+      </c>
+      <c r="C2">
+        <v>0.55167600918304105</v>
+      </c>
+      <c r="D2">
+        <v>0.53490560805229026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.50177600937811095</v>
+      </c>
+      <c r="C3">
+        <v>0.58998233113787546</v>
+      </c>
+      <c r="D3">
+        <v>0.55563816061998395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.51702531732879853</v>
+      </c>
+      <c r="C4">
+        <v>0.60503469750348526</v>
+      </c>
+      <c r="D4">
+        <v>0.57546623461494506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C5">
+        <v>0.60636404856149928</v>
+      </c>
+      <c r="D5">
+        <v>0.58255766798890773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C6">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D6">
+        <v>0.58410558407327939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C7">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D7">
+        <v>0.59481128947952622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C8">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D8">
+        <v>0.59546100248871403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C9">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D9">
+        <v>0.59775623681102696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C10">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D10">
+        <v>0.59787919886315988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.52858598196950757</v>
+      </c>
+      <c r="C11">
+        <v>0.6088476677199941</v>
+      </c>
+      <c r="D11">
+        <v>0.59787919886315988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/sensitivity_result.xlsx
+++ b/example/sensitivity_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951E2C2-A023-458F-825E-A0BBE22F3FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839EAD51-3FE8-408A-BAE6-985B1C2BE300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
+    <workbookView xWindow="975" yWindow="5310" windowWidth="26055" windowHeight="15690" activeTab="1" xr2:uid="{079FA240-E7EE-4C7A-8A33-9A6286F5ADBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4803,9 +4803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4843,7 +4843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4949,7 +4949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5091,7 +5091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5420,35 +5420,35 @@
         <v>22999</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D17" si="0">(B3-D3)/B3</f>
+        <f t="shared" ref="D13" si="0">(B3-D3)/B3</f>
         <v>0.317361624418453</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="1">(B3-E3)/B3</f>
+        <f t="shared" ref="E13" si="1">(B3-E3)/B3</f>
         <v>0.33330579590416975</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F17" si="2">(B3-F3)/B3</f>
+        <f t="shared" ref="F13" si="2">(B3-F3)/B3</f>
         <v>0.33474498891256138</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G16" si="3">(B3-G3)/B3</f>
+        <f t="shared" ref="G13" si="3">(B3-G3)/B3</f>
         <v>0.34343232314448457</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H16" si="4">(B3-H3)/B3</f>
+        <f t="shared" ref="H13" si="4">(B3-H3)/B3</f>
         <v>0.35211965737640766</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I16" si="5">(B3-I3)/B3</f>
+        <f t="shared" ref="I13" si="5">(B3-I3)/B3</f>
         <v>0.36945084568894299</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J16" si="6">(B3-J3)/B3</f>
+        <f t="shared" ref="J13" si="6">(B3-J3)/B3</f>
         <v>0.36945084568894299</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K16" si="7">(B3-K3)/B3</f>
+        <f t="shared" ref="K13" si="7">(B3-K3)/B3</f>
         <v>0.36945084568894299</v>
       </c>
     </row>
@@ -5788,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D779E643-E9FB-49D0-A89E-FD73987DE30A}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" activeCellId="4" sqref="D20 F20 H20 J20 L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,39 +6315,39 @@
         <v>22999</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D18" si="0">(B3-D3)/B3</f>
+        <f t="shared" ref="D16" si="0">(B3-D3)/B3</f>
         <v>0.35973592266571192</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E19" si="1">(B3-E3)/B3</f>
+        <f t="shared" ref="E16" si="1">(B3-E3)/B3</f>
         <v>0.45895628341090633</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="2">(B3-F3)/B3</f>
+        <f t="shared" ref="F16" si="2">(B3-F3)/B3</f>
         <v>0.46138841220261978</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G19" si="3">(B3-G3)/B3</f>
+        <f t="shared" ref="G16" si="3">(B3-G3)/B3</f>
         <v>0.46574957715527354</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H19" si="4">(B3-H3)/B3</f>
+        <f t="shared" ref="H16" si="4">(B3-H3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I19" si="5">(B3-I3)/B3</f>
+        <f t="shared" ref="I16" si="5">(B3-I3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J19" si="6">(B3-J3)/B3</f>
+        <f t="shared" ref="J16" si="6">(B3-J3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K19" si="7">(B3-K3)/B3</f>
+        <f t="shared" ref="K16" si="7">(B3-K3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L18" si="8">(B3-L3)/B3</f>
+        <f t="shared" ref="L16" si="8">(B3-L3)/B3</f>
         <v>0.49653390782602252</v>
       </c>
       <c r="R16">
@@ -6666,7 +6666,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:M20"/>
+      <selection activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,43 +7004,43 @@
         <v>22999</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D19" si="0">(B3-D3)/B3</f>
+        <f t="shared" ref="D16" si="0">(B3-D3)/B3</f>
         <v>0.38651472913256496</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E19" si="1">(B3-E3)/B3</f>
+        <f t="shared" ref="E16" si="1">(B3-E3)/B3</f>
         <v>0.41245761149503629</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F19" si="2">(B3-F3)/B3</f>
+        <f t="shared" ref="F16" si="2">(B3-F3)/B3</f>
         <v>0.41608752004201138</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G19" si="3">(B3-G3)/B3</f>
+        <f t="shared" ref="G16" si="3">(B3-G3)/B3</f>
         <v>0.41692132358281331</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H19" si="4">(B3-H3)/B3</f>
+        <f t="shared" ref="H16" si="4">(B3-H3)/B3</f>
         <v>0.41692132358281331</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I19" si="5">(B3-I3)/B3</f>
+        <f t="shared" ref="I16" si="5">(B3-I3)/B3</f>
         <v>0.41692132358281331</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J19" si="6">(B3-J3)/B3</f>
+        <f t="shared" ref="J16" si="6">(B3-J3)/B3</f>
         <v>0.41720344806395565</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K19" si="7">(B3-K3)/B3</f>
+        <f t="shared" ref="K16" si="7">(B3-K3)/B3</f>
         <v>0.41720344806395565</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L18" si="8">(B3-L3)/B3</f>
+        <f t="shared" ref="L16" si="8">(B3-L3)/B3</f>
         <v>0.41720344806395565</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:M19" si="9">(B3-M3)/B3</f>
+        <f t="shared" ref="M16" si="9">(B3-M3)/B3</f>
         <v>0.41720344806395565</v>
       </c>
     </row>
@@ -7608,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9170FF10-5234-4BFC-9BE7-5D610E9EB753}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
